--- a/QT_Project/Backup/Stat/Calculs.xlsx
+++ b/QT_Project/Backup/Stat/Calculs.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Conso" sheetId="1" r:id="rId1"/>
+    <sheet name="DeltaPressur" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_2019_08_22_21" localSheetId="0">Feuil1!$B$3:$N$43</definedName>
+    <definedName name="_2019_08_22_21" localSheetId="0">Conso!$B$3:$N$43</definedName>
+    <definedName name="_2019_08_30_1" localSheetId="1">DeltaPressur!$B$5:$N$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +49,91 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="2019-08-30" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Sebastien\Documents\SmartHomeDomotic\QT_Project\Backup\Stat\2019-08-30.csv" thousands="'" comma="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>Tmin</t>
+  </si>
+  <si>
+    <t>Tmax</t>
+  </si>
+  <si>
+    <t>Hmin</t>
+  </si>
+  <si>
+    <t>Hmax</t>
+  </si>
+  <si>
+    <t>Pmin</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Ctot</t>
+  </si>
+  <si>
+    <t>Conso</t>
+  </si>
+  <si>
+    <t>Pmoy</t>
+  </si>
+  <si>
+    <t>Patm</t>
+  </si>
+  <si>
+    <t>PdiffABS</t>
+  </si>
+  <si>
+    <t>PdiffRel</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>litre / mbar</t>
+  </si>
+  <si>
+    <t>C1Diff</t>
+  </si>
+  <si>
+    <t>C2Diff</t>
+  </si>
+  <si>
+    <t>Test C2</t>
+  </si>
+  <si>
+    <t>nb litre</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61,15 +147,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -77,12 +181,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,8 +266,2744 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Volume corrigé</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DeltaPressur!$Y$6:$Y$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1646.6304347826085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1646.6639130434787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1646.7217391304346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1647.7908695652172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1647.7426086956521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1649.1717391304346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1648.3395652173908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1646.3782608695651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1645.804347826087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1644.9730434782609</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1643.9495652173912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1643.3869565217394</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1643.6117391304349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1643.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1643.7191304347825</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1646.1256521739131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1647.7430434782609</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1648.4160869565214</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1648.5508695652175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="306280640"/>
+        <c:axId val="127418384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="306280640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127418384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127418384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306280640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Volume début</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DeltaPressur!$J$5:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1370.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1369.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1369.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1369.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1369.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1370.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1373.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1374.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1373.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1372.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1371.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1370.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1368.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1366.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1364.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1361.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1361.93</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1362.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1362.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1362.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="309841456"/>
+        <c:axId val="309837536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="309841456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309837536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="309837536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309841456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>C2 diff</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DeltaPressur!$U$6:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>276.93043478260853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277.22391304347855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277.47173913043463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.91086956521724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.33260869565186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>275.92173913043473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>274.11956521739086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>273.22826086956508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>273.35434782608684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273.11304347826098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>273.81956521739102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275.13695652173936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>276.92173913043479</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>279.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>281.83913043478253</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>284.19565217391306</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>285.26304347826084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>285.62608695652153</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285.71086956521765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="306424000"/>
+        <c:axId val="306422880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="306424000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306422880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="306422880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306424000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2019-08-22_21" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2019-08-30_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,7 +3271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3:U3"/>
     </sheetView>
   </sheetViews>
@@ -2090,4 +4992,1644 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Y24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1035</v>
+      </c>
+      <c r="T3" s="4">
+        <f>AVERAGE(T6:T20)</f>
+        <v>0.10373662138168335</v>
+      </c>
+      <c r="U3">
+        <v>0.23</v>
+      </c>
+      <c r="V3" s="8">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>0.2</v>
+      </c>
+      <c r="X3">
+        <f>Q5*W3</f>
+        <v>12.730099999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>24.877400000000002</v>
+      </c>
+      <c r="D5">
+        <v>24.9892</v>
+      </c>
+      <c r="E5">
+        <v>74.964299999999994</v>
+      </c>
+      <c r="F5">
+        <v>75.576099999999997</v>
+      </c>
+      <c r="G5">
+        <v>971.3</v>
+      </c>
+      <c r="H5">
+        <v>971.399</v>
+      </c>
+      <c r="I5">
+        <v>1375.41</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1370.42</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2745.83</v>
+      </c>
+      <c r="N5">
+        <v>-0.29474</v>
+      </c>
+      <c r="P5">
+        <f>(G5+H5)/2</f>
+        <v>971.34950000000003</v>
+      </c>
+      <c r="Q5">
+        <f>$Q$3-P5</f>
+        <v>63.650499999999965</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="6">
+        <f>Q5/$U$3</f>
+        <v>276.74130434782592</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>24.7881</v>
+      </c>
+      <c r="D6">
+        <v>24.8796</v>
+      </c>
+      <c r="E6">
+        <v>75.028199999999998</v>
+      </c>
+      <c r="F6">
+        <v>75.585800000000006</v>
+      </c>
+      <c r="G6">
+        <v>971.23199999999997</v>
+      </c>
+      <c r="H6">
+        <v>971.38</v>
+      </c>
+      <c r="I6">
+        <v>1373.65</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1369.7</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2743.35</v>
+      </c>
+      <c r="N6">
+        <v>2.4713799999999999</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P20" si="0">(G6+H6)/2</f>
+        <v>971.30600000000004</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q24" si="1">$Q$3-P6</f>
+        <v>63.69399999999996</v>
+      </c>
+      <c r="R6">
+        <f>Q5-Q6</f>
+        <v>-4.3499999999994543E-2</v>
+      </c>
+      <c r="S6">
+        <f>I6-I5</f>
+        <v>-1.7599999999999909</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" ref="T6:T19" si="2">R6/S6</f>
+        <v>2.4715909090906117E-2</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" ref="U6:U24" si="3">Q6/$U$3</f>
+        <v>276.93043478260853</v>
+      </c>
+      <c r="V6" s="6">
+        <f>1/Q6</f>
+        <v>1.570006594027696E-2</v>
+      </c>
+      <c r="X6" s="6">
+        <f>U6</f>
+        <v>276.93043478260853</v>
+      </c>
+      <c r="Y6" s="6">
+        <f>J6+X6</f>
+        <v>1646.6304347826085</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>24.783000000000001</v>
+      </c>
+      <c r="D7">
+        <v>25.195399999999999</v>
+      </c>
+      <c r="E7">
+        <v>73.894000000000005</v>
+      </c>
+      <c r="F7">
+        <v>75.369299999999996</v>
+      </c>
+      <c r="G7">
+        <v>971.197</v>
+      </c>
+      <c r="H7">
+        <v>971.28</v>
+      </c>
+      <c r="I7">
+        <v>1372.08</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1369.44</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2741.52</v>
+      </c>
+      <c r="N7">
+        <v>1.8357000000000001</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>971.23849999999993</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>63.761500000000069</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R24" si="4">Q6-Q7</f>
+        <v>-6.7500000000109139E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S20" si="5">I7-I6</f>
+        <v>-1.5700000000001637</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="2"/>
+        <v>4.2993630573313443E-2</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="3"/>
+        <v>277.22391304347855</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" ref="V7:V24" si="6">1/Q7</f>
+        <v>1.5683445339272115E-2</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" ref="X7:X24" si="7">U7</f>
+        <v>277.22391304347855</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" ref="Y7:Y24" si="8">J7+X7</f>
+        <v>1646.6639130434787</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>25.0184</v>
+      </c>
+      <c r="D8">
+        <v>25.1799</v>
+      </c>
+      <c r="E8">
+        <v>74.192599999999999</v>
+      </c>
+      <c r="F8">
+        <v>75.065100000000001</v>
+      </c>
+      <c r="G8">
+        <v>971.14300000000003</v>
+      </c>
+      <c r="H8">
+        <v>971.22</v>
+      </c>
+      <c r="I8">
+        <v>1372.27</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1369.25</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2741.52</v>
+      </c>
+      <c r="N8">
+        <v>-1.1508E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>971.18150000000003</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>63.818499999999972</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>-5.6999999999902684E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>0.19000000000005457</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.29999999999940163</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="3"/>
+        <v>277.47173913043463</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="6"/>
+        <v>1.566943754553931E-2</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="7"/>
+        <v>277.47173913043463</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="8"/>
+        <v>1646.7217391304346</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>24.955300000000001</v>
+      </c>
+      <c r="D9">
+        <v>25.018999999999998</v>
+      </c>
+      <c r="E9">
+        <v>74.293599999999998</v>
+      </c>
+      <c r="F9">
+        <v>75.136200000000002</v>
+      </c>
+      <c r="G9">
+        <v>971.01499999999999</v>
+      </c>
+      <c r="H9">
+        <v>971.14599999999996</v>
+      </c>
+      <c r="I9">
+        <v>1371.42</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1369.88</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2741.3</v>
+      </c>
+      <c r="N9">
+        <v>0.22380800000000001</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>971.08050000000003</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>63.919499999999971</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>-0.10099999999999909</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>-0.84999999999990905</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11882352941177635</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="3"/>
+        <v>277.91086956521724</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5644678071636987E-2</v>
+      </c>
+      <c r="X9" s="6">
+        <f t="shared" si="7"/>
+        <v>277.91086956521724</v>
+      </c>
+      <c r="Y9" s="6">
+        <f t="shared" si="8"/>
+        <v>1647.7908695652172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>24.8872</v>
+      </c>
+      <c r="D10">
+        <v>24.9556</v>
+      </c>
+      <c r="E10">
+        <v>74.302400000000006</v>
+      </c>
+      <c r="F10">
+        <v>74.953000000000003</v>
+      </c>
+      <c r="G10">
+        <v>971.12400000000002</v>
+      </c>
+      <c r="H10">
+        <v>971.303</v>
+      </c>
+      <c r="I10">
+        <v>1372.29</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1370.41</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2742.7</v>
+      </c>
+      <c r="N10">
+        <v>-1.4</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>971.21350000000007</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>63.786499999999933</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>0.1330000000000382</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>0.86999999999989086</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15287356321845388</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="3"/>
+        <v>277.33260869565186</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5677298487924578E-2</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="7"/>
+        <v>277.33260869565186</v>
+      </c>
+      <c r="Y10" s="6">
+        <f t="shared" si="8"/>
+        <v>1647.7426086956521</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>24.879899999999999</v>
+      </c>
+      <c r="D11">
+        <v>24.921099999999999</v>
+      </c>
+      <c r="E11">
+        <v>74.077799999999996</v>
+      </c>
+      <c r="F11">
+        <v>74.956599999999995</v>
+      </c>
+      <c r="G11">
+        <v>971.29399999999998</v>
+      </c>
+      <c r="H11">
+        <v>971.78200000000004</v>
+      </c>
+      <c r="I11">
+        <v>1374.32</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1373.25</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2747.58</v>
+      </c>
+      <c r="N11">
+        <v>-4.8808800000000003</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>971.53800000000001</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>63.461999999999989</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>0.32449999999994361</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>2.0299999999999727</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15985221674874284</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="3"/>
+        <v>275.92173913043473</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5757461157858248E-2</v>
+      </c>
+      <c r="X11" s="6">
+        <f t="shared" si="7"/>
+        <v>275.92173913043473</v>
+      </c>
+      <c r="Y11" s="6">
+        <f t="shared" si="8"/>
+        <v>1649.1717391304346</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>24.8733</v>
+      </c>
+      <c r="D12">
+        <v>24.932200000000002</v>
+      </c>
+      <c r="E12">
+        <v>73.734099999999998</v>
+      </c>
+      <c r="F12">
+        <v>74.512</v>
+      </c>
+      <c r="G12">
+        <v>971.77200000000005</v>
+      </c>
+      <c r="H12">
+        <v>972.13300000000004</v>
+      </c>
+      <c r="I12">
+        <v>1375.75</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1374.22</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2749.97</v>
+      </c>
+      <c r="N12">
+        <v>-2.3890400000000001</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>971.9525000000001</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>63.0474999999999</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>0.41450000000008913</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>1.4300000000000637</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.28986013986018927</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="3"/>
+        <v>274.11956521739086</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="6"/>
+        <v>1.586105713945837E-2</v>
+      </c>
+      <c r="X12" s="6">
+        <f t="shared" si="7"/>
+        <v>274.11956521739086</v>
+      </c>
+      <c r="Y12" s="6">
+        <f t="shared" si="8"/>
+        <v>1648.3395652173908</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>24.866299999999999</v>
+      </c>
+      <c r="D13">
+        <v>24.901499999999999</v>
+      </c>
+      <c r="E13">
+        <v>73.839100000000002</v>
+      </c>
+      <c r="F13">
+        <v>74.836299999999994</v>
+      </c>
+      <c r="G13">
+        <v>972.12800000000004</v>
+      </c>
+      <c r="H13">
+        <v>972.18700000000001</v>
+      </c>
+      <c r="I13">
+        <v>1374.19</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1373.15</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2747.35</v>
+      </c>
+      <c r="N13">
+        <v>2.6206299999999998</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>972.15750000000003</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>62.842499999999973</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>0.20499999999992724</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>-1.5599999999999454</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.13141025641021437</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="3"/>
+        <v>273.22826086956508</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5912797867685093E-2</v>
+      </c>
+      <c r="X13" s="6">
+        <f t="shared" si="7"/>
+        <v>273.22826086956508</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" si="8"/>
+        <v>1646.3782608695651</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>24.865400000000001</v>
+      </c>
+      <c r="D14">
+        <v>24.913499999999999</v>
+      </c>
+      <c r="E14">
+        <v>74.541600000000003</v>
+      </c>
+      <c r="F14">
+        <v>75.323700000000002</v>
+      </c>
+      <c r="G14">
+        <v>972.09699999999998</v>
+      </c>
+      <c r="H14">
+        <v>972.16</v>
+      </c>
+      <c r="I14">
+        <v>1374.06</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1372.45</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2746.51</v>
+      </c>
+      <c r="N14">
+        <v>0.83498799999999995</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>972.12850000000003</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>62.871499999999969</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>-2.8999999999996362E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>-0.13000000000010914</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22307692307670782</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" si="3"/>
+        <v>273.35434782608684</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5905457957898262E-2</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" si="7"/>
+        <v>273.35434782608684</v>
+      </c>
+      <c r="Y14" s="6">
+        <f t="shared" si="8"/>
+        <v>1645.804347826087</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>24.8809</v>
+      </c>
+      <c r="D15">
+        <v>24.907499999999999</v>
+      </c>
+      <c r="E15">
+        <v>75.060900000000004</v>
+      </c>
+      <c r="F15">
+        <v>75.526899999999998</v>
+      </c>
+      <c r="G15">
+        <v>972.14800000000002</v>
+      </c>
+      <c r="H15">
+        <v>972.22</v>
+      </c>
+      <c r="I15">
+        <v>1372.8</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1371.86</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2744.66</v>
+      </c>
+      <c r="N15">
+        <v>1.8487</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>972.18399999999997</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>62.816000000000031</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>5.5499999999938154E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>-1.2599999999999909</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.4047619047570284E-2</v>
+      </c>
+      <c r="U15" s="6">
+        <f t="shared" si="3"/>
+        <v>273.11304347826098</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5919510952623527E-2</v>
+      </c>
+      <c r="X15" s="6">
+        <f t="shared" si="7"/>
+        <v>273.11304347826098</v>
+      </c>
+      <c r="Y15" s="6">
+        <f t="shared" si="8"/>
+        <v>1644.9730434782609</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>24.8308</v>
+      </c>
+      <c r="D16">
+        <v>24.897400000000001</v>
+      </c>
+      <c r="E16">
+        <v>75.323599999999999</v>
+      </c>
+      <c r="F16">
+        <v>75.762600000000006</v>
+      </c>
+      <c r="G16">
+        <v>971.88800000000003</v>
+      </c>
+      <c r="H16">
+        <v>972.15499999999997</v>
+      </c>
+      <c r="I16">
+        <v>1371.39</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1370.13</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2741.52</v>
+      </c>
+      <c r="N16">
+        <v>3.1383000000000001</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>972.02150000000006</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>62.97849999999994</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>-0.16249999999990905</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>-1.4099999999998545</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.115248226950302</v>
+      </c>
+      <c r="U16" s="6">
+        <f t="shared" si="3"/>
+        <v>273.81956521739102</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5878434703906905E-2</v>
+      </c>
+      <c r="X16" s="6">
+        <f t="shared" si="7"/>
+        <v>273.81956521739102</v>
+      </c>
+      <c r="Y16" s="6">
+        <f t="shared" si="8"/>
+        <v>1643.9495652173912</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>24.772500000000001</v>
+      </c>
+      <c r="D17">
+        <v>24.834</v>
+      </c>
+      <c r="E17">
+        <v>75.4435</v>
+      </c>
+      <c r="F17">
+        <v>75.864400000000003</v>
+      </c>
+      <c r="G17">
+        <v>971.548</v>
+      </c>
+      <c r="H17">
+        <v>971.88900000000001</v>
+      </c>
+      <c r="I17">
+        <v>1368.82</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1368.25</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2737.07</v>
+      </c>
+      <c r="N17">
+        <v>4.4520299999999997</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>971.71849999999995</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>63.281500000000051</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>-0.30300000000011096</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>-2.5700000000001637</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11789883268486057</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="3"/>
+        <v>275.13695652173936</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5802406706541393E-2</v>
+      </c>
+      <c r="X17" s="6">
+        <f t="shared" si="7"/>
+        <v>275.13695652173936</v>
+      </c>
+      <c r="Y17" s="6">
+        <f t="shared" si="8"/>
+        <v>1643.3869565217394</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>24.770600000000002</v>
+      </c>
+      <c r="D18">
+        <v>24.831099999999999</v>
+      </c>
+      <c r="E18">
+        <v>75.183099999999996</v>
+      </c>
+      <c r="F18">
+        <v>75.615700000000004</v>
+      </c>
+      <c r="G18">
+        <v>971.06299999999999</v>
+      </c>
+      <c r="H18">
+        <v>971.553</v>
+      </c>
+      <c r="I18">
+        <v>1367.8</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1366.69</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2734.49</v>
+      </c>
+      <c r="N18">
+        <v>2.5814499999999998</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>971.30799999999999</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>63.692000000000007</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>-0.41049999999995634</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>-1.0199999999999818</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40245098039212124</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" si="3"/>
+        <v>276.92173913043479</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="6"/>
+        <v>1.570055893989826E-2</v>
+      </c>
+      <c r="X18" s="6">
+        <f t="shared" si="7"/>
+        <v>276.92173913043479</v>
+      </c>
+      <c r="Y18" s="6">
+        <f t="shared" si="8"/>
+        <v>1643.6117391304349</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>24.703499999999998</v>
+      </c>
+      <c r="D19">
+        <v>24.771599999999999</v>
+      </c>
+      <c r="E19">
+        <v>74.6935</v>
+      </c>
+      <c r="F19">
+        <v>75.714500000000001</v>
+      </c>
+      <c r="G19">
+        <v>970.50199999999995</v>
+      </c>
+      <c r="H19">
+        <v>971.06600000000003</v>
+      </c>
+      <c r="I19">
+        <v>1364.27</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1364.21</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2728.48</v>
+      </c>
+      <c r="N19">
+        <v>6.01424</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>970.78399999999999</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>64.216000000000008</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>-0.52400000000000091</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>-3.5299999999999727</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14844192634561046</v>
+      </c>
+      <c r="U19" s="6">
+        <f t="shared" si="3"/>
+        <v>279.20000000000005</v>
+      </c>
+      <c r="V19" s="6">
+        <f t="shared" si="6"/>
+        <v>1.55724430048586E-2</v>
+      </c>
+      <c r="X19" s="6">
+        <f t="shared" si="7"/>
+        <v>279.20000000000005</v>
+      </c>
+      <c r="Y19" s="6">
+        <f t="shared" si="8"/>
+        <v>1643.41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>24.648700000000002</v>
+      </c>
+      <c r="D20">
+        <v>24.705100000000002</v>
+      </c>
+      <c r="E20">
+        <v>73.339100000000002</v>
+      </c>
+      <c r="F20">
+        <v>75.016099999999994</v>
+      </c>
+      <c r="G20">
+        <v>969.846</v>
+      </c>
+      <c r="H20">
+        <v>970.50800000000004</v>
+      </c>
+      <c r="I20">
+        <v>1361.69</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1361.88</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2723.57</v>
+      </c>
+      <c r="N20">
+        <v>4.9061899999999996</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>970.17700000000002</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>64.822999999999979</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>-0.6069999999999709</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>-2.5799999999999272</v>
+      </c>
+      <c r="T20" s="5">
+        <f>R20/S20</f>
+        <v>0.23527131782945271</v>
+      </c>
+      <c r="U20" s="6">
+        <f t="shared" si="3"/>
+        <v>281.83913043478253</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5426623266433216E-2</v>
+      </c>
+      <c r="X20" s="6">
+        <f t="shared" si="7"/>
+        <v>281.83913043478253</v>
+      </c>
+      <c r="Y20" s="6">
+        <f t="shared" si="8"/>
+        <v>1643.7191304347825</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>24.6465</v>
+      </c>
+      <c r="D21">
+        <v>24.700299999999999</v>
+      </c>
+      <c r="E21">
+        <v>73.377099999999999</v>
+      </c>
+      <c r="F21">
+        <v>75.559200000000004</v>
+      </c>
+      <c r="G21">
+        <v>969.42100000000005</v>
+      </c>
+      <c r="H21">
+        <v>969.84900000000005</v>
+      </c>
+      <c r="I21">
+        <v>1360.61</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1361.93</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2722.54</v>
+      </c>
+      <c r="N21">
+        <v>1.02641</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P23" si="9">(G21+H21)/2</f>
+        <v>969.63499999999999</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>65.365000000000009</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>-0.54200000000003001</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21:S23" si="10">I21-I20</f>
+        <v>-1.0800000000001546</v>
+      </c>
+      <c r="T21" s="5">
+        <f t="shared" ref="T21:T23" si="11">R21/S21</f>
+        <v>0.50185185185180781</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" si="3"/>
+        <v>284.19565217391306</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5298707259236592E-2</v>
+      </c>
+      <c r="X21" s="6">
+        <f t="shared" si="7"/>
+        <v>284.19565217391306</v>
+      </c>
+      <c r="Y21" s="6">
+        <f t="shared" si="8"/>
+        <v>1646.1256521739131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>24.698399999999999</v>
+      </c>
+      <c r="D22">
+        <v>24.802</v>
+      </c>
+      <c r="E22">
+        <v>75.473200000000006</v>
+      </c>
+      <c r="F22">
+        <v>76.415300000000002</v>
+      </c>
+      <c r="G22">
+        <v>969.21799999999996</v>
+      </c>
+      <c r="H22">
+        <v>969.56100000000004</v>
+      </c>
+      <c r="I22">
+        <v>1361.29</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1362.48</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2723.77</v>
+      </c>
+      <c r="N22">
+        <v>-1.2317199999999999</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="9"/>
+        <v>969.3895</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>65.610500000000002</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>-0.24549999999999272</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="10"/>
+        <v>0.68000000000006366</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.36102941176466136</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" si="3"/>
+        <v>285.26304347826084</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="6"/>
+        <v>1.52414628756068E-2</v>
+      </c>
+      <c r="X22" s="6">
+        <f t="shared" si="7"/>
+        <v>285.26304347826084</v>
+      </c>
+      <c r="Y22" s="6">
+        <f t="shared" si="8"/>
+        <v>1647.7430434782609</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>24.7957</v>
+      </c>
+      <c r="D23">
+        <v>25.3383</v>
+      </c>
+      <c r="E23">
+        <v>74.249700000000004</v>
+      </c>
+      <c r="F23">
+        <v>76.270899999999997</v>
+      </c>
+      <c r="G23">
+        <v>969.16200000000003</v>
+      </c>
+      <c r="H23">
+        <v>969.45</v>
+      </c>
+      <c r="I23">
+        <v>1361.12</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1362.79</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2723.91</v>
+      </c>
+      <c r="N23">
+        <v>-0.13420399999999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="9"/>
+        <v>969.30600000000004</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>65.69399999999996</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>-8.3499999999958163E-2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="10"/>
+        <v>-0.17000000000007276</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="11"/>
+        <v>0.49117647058777897</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" si="3"/>
+        <v>285.62608695652153</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5222090297439653E-2</v>
+      </c>
+      <c r="X23" s="6">
+        <f t="shared" si="7"/>
+        <v>285.62608695652153</v>
+      </c>
+      <c r="Y23" s="6">
+        <f t="shared" si="8"/>
+        <v>1648.4160869565214</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>25.1036</v>
+      </c>
+      <c r="D24">
+        <v>25.305700000000002</v>
+      </c>
+      <c r="E24">
+        <v>73.087800000000001</v>
+      </c>
+      <c r="F24">
+        <v>75.8446</v>
+      </c>
+      <c r="G24">
+        <v>969.15499999999997</v>
+      </c>
+      <c r="H24">
+        <v>969.41800000000001</v>
+      </c>
+      <c r="I24">
+        <v>1359.53</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1362.84</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2722.37</v>
+      </c>
+      <c r="N24">
+        <v>1.53637</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24" si="12">(G24+H24)/2</f>
+        <v>969.28649999999993</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>65.713500000000067</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="4"/>
+        <v>-1.950000000010732E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ref="S24" si="13">I24-I23</f>
+        <v>-1.5899999999999181</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" ref="T24" si="14">R24/S24</f>
+        <v>1.2264150943464355E-2</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" si="3"/>
+        <v>285.71086956521765</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5217573253593233E-2</v>
+      </c>
+      <c r="X24" s="6">
+        <f t="shared" si="7"/>
+        <v>285.71086956521765</v>
+      </c>
+      <c r="Y24" s="6">
+        <f t="shared" si="8"/>
+        <v>1648.5508695652175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>